--- a/medicine/Handicap/Sous-titrage_pour_sourds_et_malentendants/Sous-titrage_pour_sourds_et_malentendants.xlsx
+++ b/medicine/Handicap/Sous-titrage_pour_sourds_et_malentendants/Sous-titrage_pour_sourds_et_malentendants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sous-titrage pour sourds et malentendants (parfois abrégé ST SM ou SME) est une technique d'affichage d'un texte au bas de l'écran, rendant les productions audiovisuelles accessibles aux personnes souffrant d'une déficience auditive (en France, leur nombre est estimé à environ 7 millions en 2011[1]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-titrage pour sourds et malentendants (parfois abrégé ST SM ou SME) est une technique d'affichage d'un texte au bas de l'écran, rendant les productions audiovisuelles accessibles aux personnes souffrant d'une déficience auditive (en France, leur nombre est estimé à environ 7 millions en 2011).
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Situation du sous-titrage pour sourds et malentendants en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sous-titrage pour les sourds et les malentendants est une obligation inscrite aux cahiers des charges des chaînes publiques depuis 1984.
-Mais c'est seulement avec la loi du 1er août 2000 (Loi n°2000-719 modifiant la loi n°86-1067 du 30 septembre 1986) que le sous-titrage pour sourds et malentendants est devenu une obligation pour les chaînes hertziennes. La loi du 11 février 2005 (Loi n°2005-102), quant à elle, prévoit que « dans un délai maximum de cinq ans, les chaînes dont l'audience moyenne annuelle dépasse 2,5 % de l'audience totale des services de télévision devront rendre la totalité de leurs programmes accessibles aux personnes sourdes et malentendantes à l'exception des messages publicitaires »[2]. En 2006, la proportion de programmes sous-titrés était : 23,4 % pour TF1, 31,3 % pour France 2, 25,1 % pour France 3, 21,9 % pour France 5 et 8,8 % pour M6[3]. Finalement, en février 2010, les objectifs définis par la loi sont atteints par TF1, France 2, France 3 (national), France 5, Arte, Canal+ et M6, qui sous-titrent l'intégralité de leurs programmes. En 2012, elles sont rejoints par C8, W9, TMC, France 4 et France Ô qui, à leur tour, sous-titrent l'ensemble de leurs programmes. Les chaînes d'informations en continu i-TÉLÉ, BFM TV et LCI diffusent trois journaux sous-titrés et un journal en langue des signes quotidiennement[4]. France Info quant à elle propose chaque jour six journaux sous-titrés et deux en langue des signes[5].
-Ce service était réalisé avec le système Antiope, plus tard remplacé par la norme européenne Ceefax, et était accessible sur la page 888 du Télétexte via un téléviseur ou décodeur équipé de ce système. Avec le lancement de la TNT en 2005 qui utilise le standard DVB, une simple touche de la télécommande suffit pour activer le sous-titrage. Pour des raisons de lisibilité, les sous-titres au format Télétexte (qui n'existe plus en France) s'affichent sur un bandeau noir. Avec la nouvelle norme DVB-subtitling, le bandeau est noir translucide sur la plupart des chaînes via la réception TNT avec une typographie améliorée[6].
+Mais c'est seulement avec la loi du 1er août 2000 (Loi n°2000-719 modifiant la loi n°86-1067 du 30 septembre 1986) que le sous-titrage pour sourds et malentendants est devenu une obligation pour les chaînes hertziennes. La loi du 11 février 2005 (Loi n°2005-102), quant à elle, prévoit que « dans un délai maximum de cinq ans, les chaînes dont l'audience moyenne annuelle dépasse 2,5 % de l'audience totale des services de télévision devront rendre la totalité de leurs programmes accessibles aux personnes sourdes et malentendantes à l'exception des messages publicitaires ». En 2006, la proportion de programmes sous-titrés était : 23,4 % pour TF1, 31,3 % pour France 2, 25,1 % pour France 3, 21,9 % pour France 5 et 8,8 % pour M6. Finalement, en février 2010, les objectifs définis par la loi sont atteints par TF1, France 2, France 3 (national), France 5, Arte, Canal+ et M6, qui sous-titrent l'intégralité de leurs programmes. En 2012, elles sont rejoints par C8, W9, TMC, France 4 et France Ô qui, à leur tour, sous-titrent l'ensemble de leurs programmes. Les chaînes d'informations en continu i-TÉLÉ, BFM TV et LCI diffusent trois journaux sous-titrés et un journal en langue des signes quotidiennement. France Info quant à elle propose chaque jour six journaux sous-titrés et deux en langue des signes.
+Ce service était réalisé avec le système Antiope, plus tard remplacé par la norme européenne Ceefax, et était accessible sur la page 888 du Télétexte via un téléviseur ou décodeur équipé de ce système. Avec le lancement de la TNT en 2005 qui utilise le standard DVB, une simple touche de la télécommande suffit pour activer le sous-titrage. Pour des raisons de lisibilité, les sous-titres au format Télétexte (qui n'existe plus en France) s'affichent sur un bandeau noir. Avec la nouvelle norme DVB-subtitling, le bandeau est noir translucide sur la plupart des chaînes via la réception TNT avec une typographie améliorée.
 Plus tard, Arte et France Télévisions propose ce service sur leurs plateformes de rattrapage, puis M6 et plus récemment TF1.
 Le sous-titrage SME se développe aussi durant les années 2000 sur d'autres supports (DVD, blu-ray, VOD...). Depuis 2012, grâce au soutien du CNC, certains grands éditeurs, comme Gaumont et Pathé, rendent toutes leurs éditions accessibles aux sourds et malentendants sur ces supports, aussi bien des productions anciennes que récentes. Certaines salles de cinéma proposent même des séances spécifiques.
 </t>
@@ -546,10 +560,12 @@
           <t>Réalisation du sous-titrage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sous-titrage SM est toujours fait dans la langue d'origine du programme audiovisuel. Il exige une lisibilité plus grande que le sous-titrage d'une langue étrangère, car les sourds et malentendants ne bénéficient pas, ou peu, du support de la voix et du son du programme regardé. Le sous-titrage SM est la plupart du temps une synthèse de ce que l'on entend (comme le sous-titrage d'une langue étrangère), les paroles pouvant rarement être retranscrites telles quelles, par souci du respect de la vitesse de lecture des téléspectateurs. Par ailleurs, les sous-titres sont limités à 36 caractères par ligne et de 2 lignes maximum, et certains caractères (symbole, caractères spéciaux...) ne peuvent être utilisés.
-Les sous-titres peuvent être réalisés de différentes manières. Pour un programme de stock (fictions, films, documentaires...) ils sont réalisés à l'avance[6] et une émission bavarde de 90 minutes peut nécessiter une semaine de travail[7]. Pour une émission en direct, les sous-titres sont réalisés en temps réel, soit par un sous-titreur assisté d'un ordinateur de reconnaissance vocal, soit par un vélotypiste. Cependant, avec le nombre croissant de programmes à sous-titrer à partir de 2010, certaines chaînes décident de sous-titrer certaines de leurs émissions enregistrées dans les conditions du direct étant la solution la moins coûteuse, en dépit de la qualité[8].
+Les sous-titres peuvent être réalisés de différentes manières. Pour un programme de stock (fictions, films, documentaires...) ils sont réalisés à l'avance et une émission bavarde de 90 minutes peut nécessiter une semaine de travail. Pour une émission en direct, les sous-titres sont réalisés en temps réel, soit par un sous-titreur assisté d'un ordinateur de reconnaissance vocal, soit par un vélotypiste. Cependant, avec le nombre croissant de programmes à sous-titrer à partir de 2010, certaines chaînes décident de sous-titrer certaines de leurs émissions enregistrées dans les conditions du direct étant la solution la moins coûteuse, en dépit de la qualité.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Normes françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les normes du sous-titrage SM en France varient selon les souhaits des clients et chaînes de télévision. Les couleurs des sous-titres, leur placement et leur ponctuation diffèrent plus ou moins d'une chaîne à l'autre, et parfois selon les laboratoires effectuant le sous-titrage pour les chaînes, ou bien encore selon l'époque de sa réalisation, les normes ayant connu quelques évolutions. La dernière charte de qualité du sous-titrage SME a été signée en décembre 2011 par le CSA, les chaînes de télévision, les laboratoires et les associations[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les normes du sous-titrage SM en France varient selon les souhaits des clients et chaînes de télévision. Les couleurs des sous-titres, leur placement et leur ponctuation diffèrent plus ou moins d'une chaîne à l'autre, et parfois selon les laboratoires effectuant le sous-titrage pour les chaînes, ou bien encore selon l'époque de sa réalisation, les normes ayant connu quelques évolutions. La dernière charte de qualité du sous-titrage SME a été signée en décembre 2011 par le CSA, les chaînes de télévision, les laboratoires et les associations.
 Cependant, certaines normes restent à peu près stables, on aura toujours tendance à utiliser :
 le blanc lorsqu'un personnage  parle à l'écran ,
 le jaune lorsqu'un personnage  parle hors champ ,
